--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2165.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2165.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.61473458577436</v>
+        <v>1.117350816726685</v>
       </c>
       <c r="B1">
-        <v>3.136594239926308</v>
+        <v>2.285988330841064</v>
       </c>
       <c r="C1">
-        <v>3.152298695946995</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.9202070367520201</v>
+        <v>1.493206262588501</v>
       </c>
       <c r="E1">
-        <v>0.5636929434326634</v>
+        <v>0.97004234790802</v>
       </c>
     </row>
   </sheetData>
